--- a/state_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
+++ b/state_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U213"/>
+  <dimension ref="A1:U233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>0.005</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0053105518576706</v>
+        <v>0.0053062309226849</v>
       </c>
       <c r="H2" t="n">
         <v>0.011</v>
@@ -651,7 +651,7 @@
         <v>0.005</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0053105518576706</v>
+        <v>0.0053062309226849</v>
       </c>
       <c r="H3" t="n">
         <v>0.011</v>
@@ -1072,7 +1072,7 @@
         <v>0.00684</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0142376177017744</v>
+        <v>0.0142623398182401</v>
       </c>
       <c r="H8" t="n">
         <v>0.08929199965426229</v>
@@ -1153,7 +1153,7 @@
         <v>0.00684</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0142376177017744</v>
+        <v>0.0142623398182401</v>
       </c>
       <c r="H9" t="n">
         <v>0.08929199965426229</v>
@@ -1538,7 +1538,7 @@
         <v>0.016</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0184799484231673</v>
+        <v>0.0184768090360582</v>
       </c>
       <c r="H14" t="n">
         <v>0.061</v>
@@ -1615,7 +1615,7 @@
         <v>0.016</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0184799484231673</v>
+        <v>0.0184768090360582</v>
       </c>
       <c r="H15" t="n">
         <v>0.061</v>
@@ -1777,7 +1777,7 @@
         <v>0.006</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0082412790941527</v>
+        <v>0.008234452779127601</v>
       </c>
       <c r="H17" t="n">
         <v>0.052</v>
@@ -1858,7 +1858,7 @@
         <v>0.006</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0082412790941527</v>
+        <v>0.008234452779127601</v>
       </c>
       <c r="H18" t="n">
         <v>0.052</v>
@@ -2279,7 +2279,7 @@
         <v>0.00644</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0125700166054204</v>
+        <v>0.0125873458736831</v>
       </c>
       <c r="H23" t="n">
         <v>0.08929199965426229</v>
@@ -2360,7 +2360,7 @@
         <v>0.00644</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0125700166054204</v>
+        <v>0.0125873458736831</v>
       </c>
       <c r="H24" t="n">
         <v>0.08929199965426229</v>
@@ -2907,7 +2907,7 @@
         <v>0.016</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0368481852342506</v>
+        <v>0.0368451381820565</v>
       </c>
       <c r="H31" t="n">
         <v>0.649</v>
@@ -2984,7 +2984,7 @@
         <v>0.016</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0368481852342506</v>
+        <v>0.0368451381820565</v>
       </c>
       <c r="H32" t="n">
         <v>0.649</v>
@@ -3146,7 +3146,7 @@
         <v>0.008</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0098087715043737</v>
+        <v>0.009803725967181201</v>
       </c>
       <c r="H34" t="n">
         <v>0.052</v>
@@ -3227,7 +3227,7 @@
         <v>0.008</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0098087715043737</v>
+        <v>0.009803725967181201</v>
       </c>
       <c r="H35" t="n">
         <v>0.052</v>
@@ -3645,10 +3645,10 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>0.00566</v>
+        <v>0.00567</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0100894297082333</v>
+        <v>0.0101022382978188</v>
       </c>
       <c r="H40" t="n">
         <v>0.08929199965426229</v>
@@ -3659,7 +3659,7 @@
       <c r="J40" t="inlineStr"/>
       <c r="K40" t="inlineStr"/>
       <c r="L40" t="n">
-        <v>0.00237</v>
+        <v>0.00254</v>
       </c>
       <c r="M40" t="n">
         <v>0.01198</v>
@@ -3726,10 +3726,10 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>0.00566</v>
+        <v>0.00567</v>
       </c>
       <c r="G41" t="n">
-        <v>0.0100894297082333</v>
+        <v>0.0101022382978188</v>
       </c>
       <c r="H41" t="n">
         <v>0.08929199965426229</v>
@@ -3740,7 +3740,7 @@
       <c r="J41" t="inlineStr"/>
       <c r="K41" t="inlineStr"/>
       <c r="L41" t="n">
-        <v>0.00237</v>
+        <v>0.00254</v>
       </c>
       <c r="M41" t="n">
         <v>0.01198</v>
@@ -4276,7 +4276,7 @@
         <v>0.017</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0366703977818374</v>
+        <v>0.0366681456128243</v>
       </c>
       <c r="H48" t="n">
         <v>0.649</v>
@@ -4353,7 +4353,7 @@
         <v>0.017</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0366703977818374</v>
+        <v>0.0366681456128243</v>
       </c>
       <c r="H49" t="n">
         <v>0.649</v>
@@ -4515,13 +4515,13 @@
         <v>1.85</v>
       </c>
       <c r="G51" t="n">
-        <v>2.09782282479078</v>
+        <v>2.13472682421631</v>
       </c>
       <c r="H51" t="n">
-        <v>5.76</v>
+        <v>5.844196555886</v>
       </c>
       <c r="I51" t="n">
-        <v>4.8</v>
+        <v>5.41015</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4532,7 +4532,7 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="n">
-        <v>4.32</v>
+        <v>4.64</v>
       </c>
       <c r="O51" t="n">
         <v>1796994</v>
@@ -4596,7 +4596,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0104000601586413</v>
+        <v>0.0103960585256955</v>
       </c>
       <c r="H52" t="n">
         <v>0.052</v>
@@ -4677,7 +4677,7 @@
         <v>0.008500000000000001</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0104000601586413</v>
+        <v>0.0103960585256955</v>
       </c>
       <c r="H53" t="n">
         <v>0.052</v>
@@ -5098,7 +5098,7 @@
         <v>0.00472</v>
       </c>
       <c r="G58" t="n">
-        <v>0.008453802968593899</v>
+        <v>0.0084693890877409</v>
       </c>
       <c r="H58" t="n">
         <v>0.08929199965426229</v>
@@ -5109,7 +5109,7 @@
       <c r="J58" t="inlineStr"/>
       <c r="K58" t="inlineStr"/>
       <c r="L58" t="n">
-        <v>0.002</v>
+        <v>0.00204</v>
       </c>
       <c r="M58" t="n">
         <v>0.00937</v>
@@ -5179,7 +5179,7 @@
         <v>0.00472</v>
       </c>
       <c r="G59" t="n">
-        <v>0.008453802968593899</v>
+        <v>0.0084693890877409</v>
       </c>
       <c r="H59" t="n">
         <v>0.08929199965426229</v>
@@ -5190,7 +5190,7 @@
       <c r="J59" t="inlineStr"/>
       <c r="K59" t="inlineStr"/>
       <c r="L59" t="n">
-        <v>0.002</v>
+        <v>0.00204</v>
       </c>
       <c r="M59" t="n">
         <v>0.00937</v>
@@ -5260,7 +5260,7 @@
         <v>0.375</v>
       </c>
       <c r="G60" t="n">
-        <v>0.389601872681229</v>
+        <v>0.389647770846156</v>
       </c>
       <c r="H60" t="n">
         <v>1.05</v>
@@ -5341,7 +5341,7 @@
         <v>0.375</v>
       </c>
       <c r="G61" t="n">
-        <v>0.389601872681229</v>
+        <v>0.389647770846156</v>
       </c>
       <c r="H61" t="n">
         <v>1.05</v>
@@ -5726,7 +5726,7 @@
         <v>0.0165</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0334627292752503</v>
+        <v>0.03346094307224</v>
       </c>
       <c r="H66" t="n">
         <v>0.649</v>
@@ -5803,7 +5803,7 @@
         <v>0.0165</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0334627292752503</v>
+        <v>0.03346094307224</v>
       </c>
       <c r="H67" t="n">
         <v>0.649</v>
@@ -6042,13 +6042,13 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.29790656229883</v>
+        <v>2.33339117713106</v>
       </c>
       <c r="H70" t="n">
-        <v>5.76</v>
+        <v>5.844196555886</v>
       </c>
       <c r="I70" t="n">
-        <v>5.088</v>
+        <v>5.38114</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6059,7 +6059,7 @@
         <v>3.7584</v>
       </c>
       <c r="N70" t="n">
-        <v>4.6944</v>
+        <v>4.9088</v>
       </c>
       <c r="O70" t="n">
         <v>1796994</v>
@@ -6123,7 +6123,7 @@
         <v>0.0105</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0138515516406379</v>
+        <v>0.013848463885014</v>
       </c>
       <c r="H71" t="n">
         <v>0.129</v>
@@ -6204,7 +6204,7 @@
         <v>0.0105</v>
       </c>
       <c r="G72" t="n">
-        <v>0.0138515516406379</v>
+        <v>0.013848463885014</v>
       </c>
       <c r="H72" t="n">
         <v>0.129</v>
@@ -6702,7 +6702,7 @@
         <v>0.00181</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0060795287419515</v>
+        <v>0.0061055557831634</v>
       </c>
       <c r="H78" t="n">
         <v>0.08929199965426229</v>
@@ -6713,7 +6713,7 @@
       <c r="J78" t="inlineStr"/>
       <c r="K78" t="inlineStr"/>
       <c r="L78" t="n">
-        <v>0.00085</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M78" t="n">
         <v>0.008279999999999999</v>
@@ -6783,7 +6783,7 @@
         <v>0.00181</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0060795287419515</v>
+        <v>0.0061055557831634</v>
       </c>
       <c r="H79" t="n">
         <v>0.08929199965426229</v>
@@ -6794,7 +6794,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.00085</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M79" t="n">
         <v>0.008279999999999999</v>
@@ -6864,7 +6864,7 @@
         <v>0.36005</v>
       </c>
       <c r="G80" t="n">
-        <v>0.389445409373908</v>
+        <v>0.389536279916205</v>
       </c>
       <c r="H80" t="n">
         <v>1.05</v>
@@ -6945,7 +6945,7 @@
         <v>0.36005</v>
       </c>
       <c r="G81" t="n">
-        <v>0.389445409373908</v>
+        <v>0.389536279916205</v>
       </c>
       <c r="H81" t="n">
         <v>1.05</v>
@@ -7099,7 +7099,7 @@
         <v>0.385</v>
       </c>
       <c r="G83" t="n">
-        <v>0.405115255219548</v>
+        <v>0.405161415598733</v>
       </c>
       <c r="H83" t="n">
         <v>1.063</v>
@@ -7176,7 +7176,7 @@
         <v>0.385</v>
       </c>
       <c r="G84" t="n">
-        <v>0.405115255219548</v>
+        <v>0.405161415598733</v>
       </c>
       <c r="H84" t="n">
         <v>1.063</v>
@@ -7407,7 +7407,7 @@
         <v>0.018</v>
       </c>
       <c r="G87" t="n">
-        <v>0.0341306382994087</v>
+        <v>0.0341289116364987</v>
       </c>
       <c r="H87" t="n">
         <v>0.649</v>
@@ -7484,7 +7484,7 @@
         <v>0.018</v>
       </c>
       <c r="G88" t="n">
-        <v>0.0341306382994087</v>
+        <v>0.0341289116364987</v>
       </c>
       <c r="H88" t="n">
         <v>0.649</v>
@@ -7723,13 +7723,13 @@
         <v>2.85</v>
       </c>
       <c r="G91" t="n">
-        <v>2.81782282479078</v>
+        <v>2.85472682421631</v>
       </c>
       <c r="H91" t="n">
-        <v>5.76</v>
+        <v>5.844196555886</v>
       </c>
       <c r="I91" t="n">
-        <v>5.42481</v>
+        <v>5.5</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7737,10 +7737,10 @@
         <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>4.16</v>
+        <v>4.48</v>
       </c>
       <c r="N91" t="n">
-        <v>5.145</v>
+        <v>5.29008</v>
       </c>
       <c r="O91" t="n">
         <v>1796994</v>
@@ -7804,7 +7804,7 @@
         <v>0.012</v>
       </c>
       <c r="G92" t="n">
-        <v>0.0149027115196524</v>
+        <v>0.0149020344162515</v>
       </c>
       <c r="H92" t="n">
         <v>0.129</v>
@@ -7885,7 +7885,7 @@
         <v>0.012</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0149027115196524</v>
+        <v>0.0149020344162515</v>
       </c>
       <c r="H93" t="n">
         <v>0.129</v>
@@ -8380,10 +8380,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.00155</v>
+        <v>0.00165</v>
       </c>
       <c r="G99" t="n">
-        <v>0.002902260105391</v>
+        <v>0.0029482023842277</v>
       </c>
       <c r="H99" t="n">
         <v>0.0122532283471285</v>
@@ -8394,10 +8394,10 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.00085</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M99" t="n">
-        <v>0.0061</v>
+        <v>0.00624</v>
       </c>
       <c r="N99" t="n">
         <v>0.008580000000000001</v>
@@ -8461,10 +8461,10 @@
         </is>
       </c>
       <c r="F100" t="n">
-        <v>0.00155</v>
+        <v>0.00165</v>
       </c>
       <c r="G100" t="n">
-        <v>0.002902260105391</v>
+        <v>0.0029482023842277</v>
       </c>
       <c r="H100" t="n">
         <v>0.0122532283471285</v>
@@ -8475,10 +8475,10 @@
       <c r="J100" t="inlineStr"/>
       <c r="K100" t="inlineStr"/>
       <c r="L100" t="n">
-        <v>0.00085</v>
+        <v>0.0009300000000000001</v>
       </c>
       <c r="M100" t="n">
-        <v>0.0061</v>
+        <v>0.00624</v>
       </c>
       <c r="N100" t="n">
         <v>0.008580000000000001</v>
@@ -8545,7 +8545,7 @@
         <v>0.37345</v>
       </c>
       <c r="G101" t="n">
-        <v>0.385545409373908</v>
+        <v>0.385636279916205</v>
       </c>
       <c r="H101" t="n">
         <v>0.947</v>
@@ -8626,7 +8626,7 @@
         <v>0.37345</v>
       </c>
       <c r="G102" t="n">
-        <v>0.385545409373908</v>
+        <v>0.385636279916205</v>
       </c>
       <c r="H102" t="n">
         <v>0.947</v>
@@ -8780,7 +8780,7 @@
         <v>0.3785</v>
       </c>
       <c r="G104" t="n">
-        <v>0.395748588552882</v>
+        <v>0.395794748932066</v>
       </c>
       <c r="H104" t="n">
         <v>0.955</v>
@@ -8857,7 +8857,7 @@
         <v>0.3785</v>
       </c>
       <c r="G105" t="n">
-        <v>0.395748588552882</v>
+        <v>0.395794748932066</v>
       </c>
       <c r="H105" t="n">
         <v>0.955</v>
@@ -9404,13 +9404,13 @@
         <v>3.08</v>
       </c>
       <c r="G112" t="n">
-        <v>3.14385406892636</v>
+        <v>3.1831136427833</v>
       </c>
       <c r="H112" t="n">
-        <v>5.76</v>
+        <v>5.844196555886</v>
       </c>
       <c r="I112" t="n">
-        <v>5.43609</v>
+        <v>5.539</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9418,10 +9418,10 @@
         <v>3</v>
       </c>
       <c r="M112" t="n">
-        <v>4.4902</v>
+        <v>4.5714</v>
       </c>
       <c r="N112" t="n">
-        <v>5.157</v>
+        <v>5.34771</v>
       </c>
       <c r="O112" t="n">
         <v>1796994</v>
@@ -10061,10 +10061,10 @@
         </is>
       </c>
       <c r="F120" t="n">
-        <v>0.0018</v>
+        <v>0.00191</v>
       </c>
       <c r="G120" t="n">
-        <v>0.0030628523937649</v>
+        <v>0.003124340566518</v>
       </c>
       <c r="H120" t="n">
         <v>0.0131516502174333</v>
@@ -10075,7 +10075,7 @@
       <c r="J120" t="inlineStr"/>
       <c r="K120" t="inlineStr"/>
       <c r="L120" t="n">
-        <v>0.00155</v>
+        <v>0.00166</v>
       </c>
       <c r="M120" t="n">
         <v>0.00584</v>
@@ -10142,10 +10142,10 @@
         </is>
       </c>
       <c r="F121" t="n">
-        <v>0.0018</v>
+        <v>0.00191</v>
       </c>
       <c r="G121" t="n">
-        <v>0.0030628523937649</v>
+        <v>0.003124340566518</v>
       </c>
       <c r="H121" t="n">
         <v>0.0131516502174333</v>
@@ -10156,7 +10156,7 @@
       <c r="J121" t="inlineStr"/>
       <c r="K121" t="inlineStr"/>
       <c r="L121" t="n">
-        <v>0.00155</v>
+        <v>0.00166</v>
       </c>
       <c r="M121" t="n">
         <v>0.00584</v>
@@ -10226,7 +10226,7 @@
         <v>0.40825</v>
       </c>
       <c r="G122" t="n">
-        <v>0.387222076040575</v>
+        <v>0.387312946582872</v>
       </c>
       <c r="H122" t="n">
         <v>0.947</v>
@@ -10307,7 +10307,7 @@
         <v>0.40825</v>
       </c>
       <c r="G123" t="n">
-        <v>0.387222076040575</v>
+        <v>0.387312946582872</v>
       </c>
       <c r="H123" t="n">
         <v>0.947</v>
@@ -10461,7 +10461,7 @@
         <v>0.416</v>
       </c>
       <c r="G125" t="n">
-        <v>0.397398588552882</v>
+        <v>0.397444748932066</v>
       </c>
       <c r="H125" t="n">
         <v>0.955</v>
@@ -10538,7 +10538,7 @@
         <v>0.416</v>
       </c>
       <c r="G126" t="n">
-        <v>0.397398588552882</v>
+        <v>0.397444748932066</v>
       </c>
       <c r="H126" t="n">
         <v>0.955</v>
@@ -11085,13 +11085,13 @@
         <v>3.2</v>
       </c>
       <c r="G133" t="n">
-        <v>3.32396716934421</v>
+        <v>3.3403803722126</v>
       </c>
       <c r="H133" t="n">
-        <v>9.171348550294731</v>
+        <v>8.08115591096437</v>
       </c>
       <c r="I133" t="n">
-        <v>5.552</v>
+        <v>5.77684</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11099,10 +11099,10 @@
         <v>3.3</v>
       </c>
       <c r="M133" t="n">
-        <v>4.5952</v>
+        <v>4.7488</v>
       </c>
       <c r="N133" t="n">
-        <v>5.37894</v>
+        <v>5.48383</v>
       </c>
       <c r="O133" t="n">
         <v>1796994</v>
@@ -11742,10 +11742,10 @@
         </is>
       </c>
       <c r="F141" t="n">
-        <v>0.00253</v>
+        <v>0.00265</v>
       </c>
       <c r="G141" t="n">
-        <v>0.0036790132398905</v>
+        <v>0.003754411555483</v>
       </c>
       <c r="H141" t="n">
         <v>0.0131516502174333</v>
@@ -11756,10 +11756,10 @@
       <c r="J141" t="inlineStr"/>
       <c r="K141" t="inlineStr"/>
       <c r="L141" t="n">
-        <v>0.00322</v>
+        <v>0.00329</v>
       </c>
       <c r="M141" t="n">
-        <v>0.00632</v>
+        <v>0.00643</v>
       </c>
       <c r="N141" t="n">
         <v>0.008920000000000001</v>
@@ -11823,10 +11823,10 @@
         </is>
       </c>
       <c r="F142" t="n">
-        <v>0.00253</v>
+        <v>0.00265</v>
       </c>
       <c r="G142" t="n">
-        <v>0.0036790132398905</v>
+        <v>0.003754411555483</v>
       </c>
       <c r="H142" t="n">
         <v>0.0131516502174333</v>
@@ -11837,10 +11837,10 @@
       <c r="J142" t="inlineStr"/>
       <c r="K142" t="inlineStr"/>
       <c r="L142" t="n">
-        <v>0.00322</v>
+        <v>0.00329</v>
       </c>
       <c r="M142" t="n">
-        <v>0.00632</v>
+        <v>0.00643</v>
       </c>
       <c r="N142" t="n">
         <v>0.008920000000000001</v>
@@ -11907,7 +11907,7 @@
         <v>0.33905</v>
       </c>
       <c r="G143" t="n">
-        <v>0.372973742707242</v>
+        <v>0.373064613249538</v>
       </c>
       <c r="H143" t="n">
         <v>0.947</v>
@@ -11988,7 +11988,7 @@
         <v>0.33905</v>
       </c>
       <c r="G144" t="n">
-        <v>0.372973742707242</v>
+        <v>0.373064613249538</v>
       </c>
       <c r="H144" t="n">
         <v>0.947</v>
@@ -12142,7 +12142,7 @@
         <v>0.348</v>
       </c>
       <c r="G146" t="n">
-        <v>0.383765255219548</v>
+        <v>0.383811415598733</v>
       </c>
       <c r="H146" t="n">
         <v>0.955</v>
@@ -12219,7 +12219,7 @@
         <v>0.348</v>
       </c>
       <c r="G147" t="n">
-        <v>0.383765255219548</v>
+        <v>0.383811415598733</v>
       </c>
       <c r="H147" t="n">
         <v>0.955</v>
@@ -12766,10 +12766,10 @@
         <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>3.20198583804989</v>
+        <v>3.17828599806444</v>
       </c>
       <c r="H154" t="n">
-        <v>9.171348550294731</v>
+        <v>8.08115591096437</v>
       </c>
       <c r="I154" t="n">
         <v>5.236</v>
@@ -13423,10 +13423,10 @@
         </is>
       </c>
       <c r="F162" t="n">
-        <v>0.00339</v>
+        <v>0.00351</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0086561281117357</v>
+        <v>0.008729944197992201</v>
       </c>
       <c r="H162" t="n">
         <v>0.225247346023899</v>
@@ -13437,7 +13437,7 @@
       <c r="J162" t="inlineStr"/>
       <c r="K162" t="inlineStr"/>
       <c r="L162" t="n">
-        <v>0.00379</v>
+        <v>0.00394</v>
       </c>
       <c r="M162" t="n">
         <v>0.008200000000000001</v>
@@ -13504,10 +13504,10 @@
         </is>
       </c>
       <c r="F163" t="n">
-        <v>0.00339</v>
+        <v>0.00351</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0086561281117357</v>
+        <v>0.008729944197992201</v>
       </c>
       <c r="H163" t="n">
         <v>0.225247346023899</v>
@@ -13518,7 +13518,7 @@
       <c r="J163" t="inlineStr"/>
       <c r="K163" t="inlineStr"/>
       <c r="L163" t="n">
-        <v>0.00379</v>
+        <v>0.00394</v>
       </c>
       <c r="M163" t="n">
         <v>0.008200000000000001</v>
@@ -13588,7 +13588,7 @@
         <v>0.313</v>
       </c>
       <c r="G164" t="n">
-        <v>0.367220964602125</v>
+        <v>0.36726907044647</v>
       </c>
       <c r="H164" t="n">
         <v>0.947</v>
@@ -13669,7 +13669,7 @@
         <v>0.313</v>
       </c>
       <c r="G165" t="n">
-        <v>0.367220964602125</v>
+        <v>0.36726907044647</v>
       </c>
       <c r="H165" t="n">
         <v>0.947</v>
@@ -13823,7 +13823,7 @@
         <v>0.33</v>
       </c>
       <c r="G167" t="n">
-        <v>0.386134157850388</v>
+        <v>0.386181100608881</v>
       </c>
       <c r="H167" t="n">
         <v>0.955</v>
@@ -13900,7 +13900,7 @@
         <v>0.33</v>
       </c>
       <c r="G168" t="n">
-        <v>0.386134157850388</v>
+        <v>0.386181100608881</v>
       </c>
       <c r="H168" t="n">
         <v>0.955</v>
@@ -14447,10 +14447,10 @@
         <v>3.04</v>
       </c>
       <c r="G175" t="n">
-        <v>3.25793022500776</v>
+        <v>3.22924094502538</v>
       </c>
       <c r="H175" t="n">
-        <v>9.171348550294731</v>
+        <v>8.08115591096437</v>
       </c>
       <c r="I175" t="n">
         <v>5.368</v>
@@ -15104,10 +15104,10 @@
         </is>
       </c>
       <c r="F183" t="n">
-        <v>0.00392</v>
+        <v>0.00393</v>
       </c>
       <c r="G183" t="n">
-        <v>0.0093204426802078</v>
+        <v>0.009376966810130401</v>
       </c>
       <c r="H183" t="n">
         <v>0.225247346023899</v>
@@ -15185,10 +15185,10 @@
         </is>
       </c>
       <c r="F184" t="n">
-        <v>0.00392</v>
+        <v>0.00393</v>
       </c>
       <c r="G184" t="n">
-        <v>0.0093204426802078</v>
+        <v>0.009376966810130401</v>
       </c>
       <c r="H184" t="n">
         <v>0.225247346023899</v>
@@ -16704,10 +16704,10 @@
         </is>
       </c>
       <c r="F203" t="n">
-        <v>0.00454</v>
+        <v>0.00455</v>
       </c>
       <c r="G203" t="n">
-        <v>0.0104495402832782</v>
+        <v>0.0104800542557765</v>
       </c>
       <c r="H203" t="n">
         <v>0.225247346023899</v>
@@ -16785,10 +16785,10 @@
         </is>
       </c>
       <c r="F204" t="n">
-        <v>0.00454</v>
+        <v>0.00455</v>
       </c>
       <c r="G204" t="n">
-        <v>0.0104495402832782</v>
+        <v>0.0104800542557765</v>
       </c>
       <c r="H204" t="n">
         <v>0.225247346023899</v>
@@ -17540,6 +17540,1606 @@
         </is>
       </c>
     </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>ASPM</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D214" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E214" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F214" t="n">
+        <v>0.296</v>
+      </c>
+      <c r="G214" t="n">
+        <v>0.2876</v>
+      </c>
+      <c r="H214" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="I214" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="n">
+        <v>0.253</v>
+      </c>
+      <c r="M214" t="n">
+        <v>0.3767</v>
+      </c>
+      <c r="N214" t="n">
+        <v>0.39</v>
+      </c>
+      <c r="O214" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P214" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q214" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R214" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S214" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T214" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U214" t="inlineStr"/>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>Chlorophyll A (92nd Percentile)</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>C</t>
+        </is>
+      </c>
+      <c r="D215" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E215" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F215" t="n">
+        <v>43</v>
+      </c>
+      <c r="G215" t="n">
+        <v>61.2386363636364</v>
+      </c>
+      <c r="H215" t="n">
+        <v>245</v>
+      </c>
+      <c r="I215" t="n">
+        <v>159.5</v>
+      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="n">
+        <v>47.5</v>
+      </c>
+      <c r="M215" t="n">
+        <v>100.4</v>
+      </c>
+      <c r="N215" t="n">
+        <v>149.8</v>
+      </c>
+      <c r="O215" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P215" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q215" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R215" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S215" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T215" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U215" t="inlineStr">
+        <is>
+          <t>mg chl-a /m2</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D216" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E216" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F216" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="G216" t="n">
+        <v>0.009534482758620601</v>
+      </c>
+      <c r="H216" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I216" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M216" t="n">
+        <v>0.01464</v>
+      </c>
+      <c r="N216" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="O216" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P216" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q216" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R216" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S216" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T216" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U216" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D217" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E217" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F217" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="G217" t="n">
+        <v>0.009534482758620601</v>
+      </c>
+      <c r="H217" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="I217" t="n">
+        <v>0.0246</v>
+      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="M217" t="n">
+        <v>0.01464</v>
+      </c>
+      <c r="N217" t="n">
+        <v>0.01786</v>
+      </c>
+      <c r="O217" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P217" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q217" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R217" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S217" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T217" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U217" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D218" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E218" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F218" t="n">
+        <v>210</v>
+      </c>
+      <c r="G218" t="n">
+        <v>689.965517241379</v>
+      </c>
+      <c r="H218" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I218" t="n">
+        <v>3062.8</v>
+      </c>
+      <c r="J218" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K218" t="n">
+        <v>41.3793103448276</v>
+      </c>
+      <c r="L218" t="n">
+        <v>265</v>
+      </c>
+      <c r="M218" t="n">
+        <v>931.6</v>
+      </c>
+      <c r="N218" t="n">
+        <v>2526.68</v>
+      </c>
+      <c r="O218" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P218" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q218" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R218" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S218" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T218" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U218" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D219" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E219" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F219" t="n">
+        <v>210</v>
+      </c>
+      <c r="G219" t="n">
+        <v>689.965517241379</v>
+      </c>
+      <c r="H219" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I219" t="n">
+        <v>3062.8</v>
+      </c>
+      <c r="J219" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K219" t="n">
+        <v>41.3793103448276</v>
+      </c>
+      <c r="L219" t="n">
+        <v>265</v>
+      </c>
+      <c r="M219" t="n">
+        <v>931.6</v>
+      </c>
+      <c r="N219" t="n">
+        <v>2526.68</v>
+      </c>
+      <c r="O219" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P219" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q219" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R219" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S219" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T219" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U219" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D220" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E220" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F220" t="n">
+        <v>210</v>
+      </c>
+      <c r="G220" t="n">
+        <v>689.965517241379</v>
+      </c>
+      <c r="H220" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I220" t="n">
+        <v>3062.8</v>
+      </c>
+      <c r="J220" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K220" t="n">
+        <v>41.3793103448276</v>
+      </c>
+      <c r="L220" t="n">
+        <v>265</v>
+      </c>
+      <c r="M220" t="n">
+        <v>931.6</v>
+      </c>
+      <c r="N220" t="n">
+        <v>2526.68</v>
+      </c>
+      <c r="O220" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P220" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q220" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R220" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S220" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T220" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U220" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D221" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E221" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F221" t="n">
+        <v>210</v>
+      </c>
+      <c r="G221" t="n">
+        <v>689.965517241379</v>
+      </c>
+      <c r="H221" t="n">
+        <v>9678</v>
+      </c>
+      <c r="I221" t="n">
+        <v>3062.8</v>
+      </c>
+      <c r="J221" t="n">
+        <v>27.5862068965517</v>
+      </c>
+      <c r="K221" t="n">
+        <v>41.3793103448276</v>
+      </c>
+      <c r="L221" t="n">
+        <v>265</v>
+      </c>
+      <c r="M221" t="n">
+        <v>931.6</v>
+      </c>
+      <c r="N221" t="n">
+        <v>2526.68</v>
+      </c>
+      <c r="O221" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P221" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q221" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R221" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S221" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T221" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U221" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>MCI</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D222" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E222" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F222" t="n">
+        <v>86</v>
+      </c>
+      <c r="G222" t="n">
+        <v>90.172</v>
+      </c>
+      <c r="H222" t="n">
+        <v>107.59</v>
+      </c>
+      <c r="I222" t="n">
+        <v>107.59</v>
+      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="n">
+        <v>85.5</v>
+      </c>
+      <c r="M222" t="n">
+        <v>103.978</v>
+      </c>
+      <c r="N222" t="n">
+        <v>107.59</v>
+      </c>
+      <c r="O222" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P222" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q222" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R222" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S222" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T222" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U222" t="inlineStr"/>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D223" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E223" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F223" t="n">
+        <v>0.00501</v>
+      </c>
+      <c r="G223" t="n">
+        <v>0.0107789908906801</v>
+      </c>
+      <c r="H223" t="n">
+        <v>0.225247346023899</v>
+      </c>
+      <c r="I223" t="n">
+        <v>0.02743</v>
+      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="n">
+        <v>0.00754</v>
+      </c>
+      <c r="M223" t="n">
+        <v>0.01084</v>
+      </c>
+      <c r="N223" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="O223" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P223" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q223" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R223" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S223" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T223" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U223" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D224" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E224" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F224" t="n">
+        <v>0.00501</v>
+      </c>
+      <c r="G224" t="n">
+        <v>0.0107789908906801</v>
+      </c>
+      <c r="H224" t="n">
+        <v>0.225247346023899</v>
+      </c>
+      <c r="I224" t="n">
+        <v>0.02743</v>
+      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="n">
+        <v>0.00754</v>
+      </c>
+      <c r="M224" t="n">
+        <v>0.01084</v>
+      </c>
+      <c r="N224" t="n">
+        <v>0.0155</v>
+      </c>
+      <c r="O224" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P224" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q224" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R224" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S224" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T224" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U224" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D225" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E225" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F225" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="G225" t="n">
+        <v>0.374741379310345</v>
+      </c>
+      <c r="H225" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I225" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="M225" t="n">
+        <v>0.61896</v>
+      </c>
+      <c r="N225" t="n">
+        <v>0.7348</v>
+      </c>
+      <c r="O225" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P225" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q225" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R225" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S225" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T225" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U225" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D226" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E226" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F226" t="n">
+        <v>0.336</v>
+      </c>
+      <c r="G226" t="n">
+        <v>0.374741379310345</v>
+      </c>
+      <c r="H226" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="I226" t="n">
+        <v>0.761</v>
+      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="n">
+        <v>0.232</v>
+      </c>
+      <c r="M226" t="n">
+        <v>0.61896</v>
+      </c>
+      <c r="N226" t="n">
+        <v>0.7348</v>
+      </c>
+      <c r="O226" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P226" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q226" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R226" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S226" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T226" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U226" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>QMCI</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D227" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E227" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F227" t="n">
+        <v>3.856</v>
+      </c>
+      <c r="G227" t="n">
+        <v>3.7802</v>
+      </c>
+      <c r="H227" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="I227" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="n">
+        <v>3.733</v>
+      </c>
+      <c r="M227" t="n">
+        <v>4.28775</v>
+      </c>
+      <c r="N227" t="n">
+        <v>4.37</v>
+      </c>
+      <c r="O227" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P227" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q227" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R227" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S227" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T227" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U227" t="inlineStr"/>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr"/>
+      <c r="D228" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E228" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F228" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G228" t="n">
+        <v>0.39764406779661</v>
+      </c>
+      <c r="H228" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="I228" t="n">
+        <v>0.8423</v>
+      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="M228" t="n">
+        <v>0.66033</v>
+      </c>
+      <c r="N228" t="n">
+        <v>0.77074</v>
+      </c>
+      <c r="O228" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P228" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q228" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R228" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S228" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T228" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U228" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr"/>
+      <c r="D229" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E229" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F229" t="n">
+        <v>0.357</v>
+      </c>
+      <c r="G229" t="n">
+        <v>0.39764406779661</v>
+      </c>
+      <c r="H229" t="n">
+        <v>0.929</v>
+      </c>
+      <c r="I229" t="n">
+        <v>0.8423</v>
+      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="n">
+        <v>0.2525</v>
+      </c>
+      <c r="M229" t="n">
+        <v>0.66033</v>
+      </c>
+      <c r="N229" t="n">
+        <v>0.77074</v>
+      </c>
+      <c r="O229" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P229" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q229" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R229" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S229" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T229" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U229" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr"/>
+      <c r="D230" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E230" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F230" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G230" t="n">
+        <v>0.536379310344828</v>
+      </c>
+      <c r="H230" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I230" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M230" t="n">
+        <v>0.7284</v>
+      </c>
+      <c r="N230" t="n">
+        <v>0.8344</v>
+      </c>
+      <c r="O230" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P230" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q230" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R230" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S230" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T230" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U230" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr"/>
+      <c r="D231" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E231" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F231" t="n">
+        <v>0.505</v>
+      </c>
+      <c r="G231" t="n">
+        <v>0.536379310344828</v>
+      </c>
+      <c r="H231" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="I231" t="n">
+        <v>0.864</v>
+      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="n">
+        <v>0.41</v>
+      </c>
+      <c r="M231" t="n">
+        <v>0.7284</v>
+      </c>
+      <c r="N231" t="n">
+        <v>0.8344</v>
+      </c>
+      <c r="O231" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P231" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q231" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R231" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S231" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T231" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U231" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr"/>
+      <c r="D232" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E232" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F232" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="G232" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H232" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="I232" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M232" t="n">
+        <v>0.03392</v>
+      </c>
+      <c r="N232" t="n">
+        <v>0.04086</v>
+      </c>
+      <c r="O232" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P232" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q232" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R232" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S232" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T232" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U232" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Makotuku at Above Sewage Plant</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr"/>
+      <c r="D233" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E233" t="inlineStr">
+        <is>
+          <t>RepSite</t>
+        </is>
+      </c>
+      <c r="F233" t="n">
+        <v>0.0175</v>
+      </c>
+      <c r="G233" t="n">
+        <v>0.022</v>
+      </c>
+      <c r="H233" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="I233" t="n">
+        <v>0.0496</v>
+      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="n">
+        <v>0.017</v>
+      </c>
+      <c r="M233" t="n">
+        <v>0.03392</v>
+      </c>
+      <c r="N233" t="n">
+        <v>0.04086</v>
+      </c>
+      <c r="O233" t="n">
+        <v>1796994</v>
+      </c>
+      <c r="P233" t="n">
+        <v>5632088</v>
+      </c>
+      <c r="Q233" t="inlineStr">
+        <is>
+          <t>Ruapehu District</t>
+        </is>
+      </c>
+      <c r="R233" t="inlineStr">
+        <is>
+          <t>Whangaehu</t>
+        </is>
+      </c>
+      <c r="S233" t="inlineStr">
+        <is>
+          <t>Lower Whangaehu</t>
+        </is>
+      </c>
+      <c r="T233" t="inlineStr">
+        <is>
+          <t>Whau_3c</t>
+        </is>
+      </c>
+      <c r="U233" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
+++ b/state_results/Rivers/MakotukuatAboveSewagePlant_376eccc064.xlsx
@@ -4515,13 +4515,13 @@
         <v>1.85</v>
       </c>
       <c r="G51" t="n">
-        <v>2.13472682421631</v>
+        <v>2.10207725306567</v>
       </c>
       <c r="H51" t="n">
-        <v>5.844196555886</v>
+        <v>5.76</v>
       </c>
       <c r="I51" t="n">
-        <v>5.41015</v>
+        <v>4.8</v>
       </c>
       <c r="J51" t="inlineStr"/>
       <c r="K51" t="inlineStr"/>
@@ -4532,7 +4532,7 @@
         <v>3.5</v>
       </c>
       <c r="N51" t="n">
-        <v>4.64</v>
+        <v>4.38051</v>
       </c>
       <c r="O51" t="n">
         <v>1796994</v>
@@ -6042,13 +6042,13 @@
         <v>2</v>
       </c>
       <c r="G70" t="n">
-        <v>2.33339117713106</v>
+        <v>2.30199735871699</v>
       </c>
       <c r="H70" t="n">
-        <v>5.844196555886</v>
+        <v>5.76</v>
       </c>
       <c r="I70" t="n">
-        <v>5.38114</v>
+        <v>5.088</v>
       </c>
       <c r="J70" t="inlineStr"/>
       <c r="K70" t="inlineStr"/>
@@ -6059,7 +6059,7 @@
         <v>3.7584</v>
       </c>
       <c r="N70" t="n">
-        <v>4.9088</v>
+        <v>4.6944</v>
       </c>
       <c r="O70" t="n">
         <v>1796994</v>
@@ -7723,13 +7723,13 @@
         <v>2.85</v>
       </c>
       <c r="G91" t="n">
-        <v>2.85472682421631</v>
+        <v>2.82207725306567</v>
       </c>
       <c r="H91" t="n">
-        <v>5.844196555886</v>
+        <v>5.76</v>
       </c>
       <c r="I91" t="n">
-        <v>5.5</v>
+        <v>5.34085</v>
       </c>
       <c r="J91" t="inlineStr"/>
       <c r="K91" t="inlineStr"/>
@@ -7737,10 +7737,10 @@
         <v>3</v>
       </c>
       <c r="M91" t="n">
-        <v>4.48</v>
+        <v>4.28102</v>
       </c>
       <c r="N91" t="n">
-        <v>5.29008</v>
+        <v>5.145</v>
       </c>
       <c r="O91" t="n">
         <v>1796994</v>
@@ -9404,13 +9404,13 @@
         <v>3.08</v>
       </c>
       <c r="G112" t="n">
-        <v>3.1831136427833</v>
+        <v>3.14838005645284</v>
       </c>
       <c r="H112" t="n">
-        <v>5.844196555886</v>
+        <v>5.76</v>
       </c>
       <c r="I112" t="n">
-        <v>5.539</v>
+        <v>5.36472</v>
       </c>
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
@@ -9418,10 +9418,10 @@
         <v>3</v>
       </c>
       <c r="M112" t="n">
-        <v>4.5714</v>
+        <v>4.4902</v>
       </c>
       <c r="N112" t="n">
-        <v>5.34771</v>
+        <v>5.157</v>
       </c>
       <c r="O112" t="n">
         <v>1796994</v>
@@ -11085,13 +11085,13 @@
         <v>3.2</v>
       </c>
       <c r="G133" t="n">
-        <v>3.3403803722126</v>
+        <v>3.32853227886214</v>
       </c>
       <c r="H133" t="n">
-        <v>8.08115591096437</v>
+        <v>9.16862217437486</v>
       </c>
       <c r="I133" t="n">
-        <v>5.77684</v>
+        <v>5.552</v>
       </c>
       <c r="J133" t="inlineStr"/>
       <c r="K133" t="inlineStr"/>
@@ -11099,10 +11099,10 @@
         <v>3.3</v>
       </c>
       <c r="M133" t="n">
-        <v>4.7488</v>
+        <v>4.5952</v>
       </c>
       <c r="N133" t="n">
-        <v>5.48383</v>
+        <v>5.3101</v>
       </c>
       <c r="O133" t="n">
         <v>1796994</v>
@@ -12766,10 +12766,10 @@
         <v>3</v>
       </c>
       <c r="G154" t="n">
-        <v>3.17828599806444</v>
+        <v>3.20192656900815</v>
       </c>
       <c r="H154" t="n">
-        <v>8.08115591096437</v>
+        <v>9.16862217437486</v>
       </c>
       <c r="I154" t="n">
         <v>5.236</v>
@@ -14447,10 +14447,10 @@
         <v>3.04</v>
       </c>
       <c r="G175" t="n">
-        <v>3.22924094502538</v>
+        <v>3.25785847827302</v>
       </c>
       <c r="H175" t="n">
-        <v>8.08115591096437</v>
+        <v>9.16862217437486</v>
       </c>
       <c r="I175" t="n">
         <v>5.368</v>
